--- a/WebRoot/docs/人员考勤模板-计时.xlsx
+++ b/WebRoot/docs/人员考勤模板-计时.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>工厂/部门</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>其他事业部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银川</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,6 +284,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -612,62 +627,68 @@
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:43" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="11" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="5" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="8"/>
     </row>
-    <row r="2" spans="1:37" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+    <row r="2" spans="1:43" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
@@ -692,7 +713,7 @@
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="13"/>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
@@ -724,57 +745,75 @@
         <v>24</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="Y1:AK1"/>
+    <mergeCell ref="AB1:AQ1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
